--- a/data/pca/factorExposure/factorExposure_2009-05-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-05-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01735766811024154</v>
+        <v>-0.01657686643505701</v>
       </c>
       <c r="C2">
-        <v>0.001640185978630251</v>
+        <v>0.001083326401570521</v>
       </c>
       <c r="D2">
-        <v>0.009725729085710155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.01002041114247368</v>
+      </c>
+      <c r="E2">
+        <v>0.002256086414982063</v>
+      </c>
+      <c r="F2">
+        <v>-0.01243562145844244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.08879590265238731</v>
+        <v>-0.09155629810410981</v>
       </c>
       <c r="C4">
-        <v>0.02001977363416919</v>
+        <v>0.01533934878928628</v>
       </c>
       <c r="D4">
-        <v>0.07774012979259723</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08191539527678617</v>
+      </c>
+      <c r="E4">
+        <v>0.02668631406501699</v>
+      </c>
+      <c r="F4">
+        <v>0.03242207615164511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-1.383649060401198e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-7.061166409895466e-06</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.0002399385463337375</v>
+      </c>
+      <c r="E5">
+        <v>5.681133357910252e-05</v>
+      </c>
+      <c r="F5">
+        <v>-0.0001065226009257737</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1538273208506177</v>
+        <v>-0.1619984779395793</v>
       </c>
       <c r="C6">
-        <v>0.03129679135991078</v>
+        <v>0.03021253389170372</v>
       </c>
       <c r="D6">
-        <v>-0.03612247830830001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02559700422282007</v>
+      </c>
+      <c r="E6">
+        <v>0.01193385766680793</v>
+      </c>
+      <c r="F6">
+        <v>0.04065340315650681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05969497819072093</v>
+        <v>-0.0620905543077338</v>
       </c>
       <c r="C7">
-        <v>0.002069556025491963</v>
+        <v>-0.001141209438848503</v>
       </c>
       <c r="D7">
-        <v>0.04836159120483274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05384161409478012</v>
+      </c>
+      <c r="E7">
+        <v>0.01525907794328552</v>
+      </c>
+      <c r="F7">
+        <v>0.0491888097871415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06105698031563088</v>
+        <v>-0.0570326983681212</v>
       </c>
       <c r="C8">
-        <v>-0.009870869754761759</v>
+        <v>-0.01166261414441413</v>
       </c>
       <c r="D8">
-        <v>0.02597199919026468</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02974087119662226</v>
+      </c>
+      <c r="E8">
+        <v>0.01885601580025573</v>
+      </c>
+      <c r="F8">
+        <v>-0.02958402707550307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06915721222628268</v>
+        <v>-0.071187291840053</v>
       </c>
       <c r="C9">
-        <v>0.01602683823755893</v>
+        <v>0.01089878154933427</v>
       </c>
       <c r="D9">
-        <v>0.07995801064829171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08534949170766579</v>
+      </c>
+      <c r="E9">
+        <v>0.02479320578724338</v>
+      </c>
+      <c r="F9">
+        <v>0.04870719981403104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08659050402417161</v>
+        <v>-0.08775074851855941</v>
       </c>
       <c r="C10">
-        <v>0.01709321469455557</v>
+        <v>0.02210514211319569</v>
       </c>
       <c r="D10">
-        <v>-0.1660474626573842</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1589700852101377</v>
+      </c>
+      <c r="E10">
+        <v>-0.03214081259094405</v>
+      </c>
+      <c r="F10">
+        <v>-0.05973211915252601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.08997878951014691</v>
+        <v>-0.08700117218257089</v>
       </c>
       <c r="C11">
-        <v>0.0174202464236365</v>
+        <v>0.01212673807281704</v>
       </c>
       <c r="D11">
-        <v>0.1113888433358519</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1179513590826979</v>
+      </c>
+      <c r="E11">
+        <v>0.05150528505597995</v>
+      </c>
+      <c r="F11">
+        <v>0.02445403362949154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09705837075465368</v>
+        <v>-0.0910949430393049</v>
       </c>
       <c r="C12">
-        <v>0.0161090079852052</v>
+        <v>0.009871040324165347</v>
       </c>
       <c r="D12">
-        <v>0.1187914961463753</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1334726437967829</v>
+      </c>
+      <c r="E12">
+        <v>0.05200763003740846</v>
+      </c>
+      <c r="F12">
+        <v>0.0307463733340142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.044783351378491</v>
+        <v>-0.04369251454142906</v>
       </c>
       <c r="C13">
-        <v>0.006756098997224581</v>
+        <v>0.003045217383320792</v>
       </c>
       <c r="D13">
-        <v>0.04536999090435102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.0539872763672444</v>
+      </c>
+      <c r="E13">
+        <v>5.068388330941321e-05</v>
+      </c>
+      <c r="F13">
+        <v>0.003934189105930708</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02015312101955311</v>
+        <v>-0.02394255324205885</v>
       </c>
       <c r="C14">
-        <v>0.01541136406991574</v>
+        <v>0.01419523067977971</v>
       </c>
       <c r="D14">
-        <v>0.03239865921766278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03353602250443701</v>
+      </c>
+      <c r="E14">
+        <v>0.02264893569485528</v>
+      </c>
+      <c r="F14">
+        <v>0.01209617170500023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03439210379429455</v>
+        <v>-0.03441063299218944</v>
       </c>
       <c r="C15">
-        <v>0.007710737999974172</v>
+        <v>0.005938418980154546</v>
       </c>
       <c r="D15">
-        <v>0.04605523626007042</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04660371432542745</v>
+      </c>
+      <c r="E15">
+        <v>0.008459789682945128</v>
+      </c>
+      <c r="F15">
+        <v>0.02959378488415233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07386701737721575</v>
+        <v>-0.07150604483340828</v>
       </c>
       <c r="C16">
-        <v>0.007517896314827342</v>
+        <v>0.001850995917207497</v>
       </c>
       <c r="D16">
-        <v>0.1151671677589278</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1290972383663813</v>
+      </c>
+      <c r="E16">
+        <v>0.0642003909164534</v>
+      </c>
+      <c r="F16">
+        <v>0.02811307080129437</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.001158868292628027</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0003898261821388399</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.002321977679744538</v>
+      </c>
+      <c r="E17">
+        <v>0.001904597812542051</v>
+      </c>
+      <c r="F17">
+        <v>-0.002338012102080067</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.02522678877839491</v>
+        <v>-0.04277702622365977</v>
       </c>
       <c r="C18">
-        <v>-0.001718477839628257</v>
+        <v>-0.001704307496561978</v>
       </c>
       <c r="D18">
-        <v>0.02215851725224785</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01662905296035508</v>
+      </c>
+      <c r="E18">
+        <v>-0.004272524468014842</v>
+      </c>
+      <c r="F18">
+        <v>-0.009001438060200054</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06440869618943339</v>
+        <v>-0.06301907407889722</v>
       </c>
       <c r="C20">
-        <v>0.005847701217268499</v>
+        <v>0.001923426362432331</v>
       </c>
       <c r="D20">
-        <v>0.07295432659349287</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07912479970669914</v>
+      </c>
+      <c r="E20">
+        <v>0.06202131374545899</v>
+      </c>
+      <c r="F20">
+        <v>0.02995665359636219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04080472008585771</v>
+        <v>-0.04263959001892217</v>
       </c>
       <c r="C21">
-        <v>0.00996220583964531</v>
+        <v>0.007358843109061781</v>
       </c>
       <c r="D21">
-        <v>0.0348425695046567</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03618183065760672</v>
+      </c>
+      <c r="E21">
+        <v>0.002599506939331283</v>
+      </c>
+      <c r="F21">
+        <v>-0.02498710967812849</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04070225771283713</v>
+        <v>-0.04228876573378465</v>
       </c>
       <c r="C22">
-        <v>0.001384641465833112</v>
+        <v>0.001004437514587851</v>
       </c>
       <c r="D22">
-        <v>7.396541403686419e-06</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.006268132595133883</v>
+      </c>
+      <c r="E22">
+        <v>0.03656401633685997</v>
+      </c>
+      <c r="F22">
+        <v>-0.05014496308753082</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04065705766988839</v>
+        <v>-0.04225779270403646</v>
       </c>
       <c r="C23">
-        <v>0.001370711352017134</v>
+        <v>0.0009927655738147503</v>
       </c>
       <c r="D23">
-        <v>3.587093858525597e-05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.006282526036080634</v>
+      </c>
+      <c r="E23">
+        <v>0.03659359092619514</v>
+      </c>
+      <c r="F23">
+        <v>-0.05020024911961662</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08131242441606226</v>
+        <v>-0.07745144099835395</v>
       </c>
       <c r="C24">
-        <v>0.00815492246421754</v>
+        <v>0.002624830862010641</v>
       </c>
       <c r="D24">
-        <v>0.1161419382851479</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1220525293457029</v>
+      </c>
+      <c r="E24">
+        <v>0.05117353000530633</v>
+      </c>
+      <c r="F24">
+        <v>0.03069516397546127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08637462472811254</v>
+        <v>-0.08288270294340831</v>
       </c>
       <c r="C25">
-        <v>0.01057243472003869</v>
+        <v>0.005661981982842844</v>
       </c>
       <c r="D25">
-        <v>0.1035890284873071</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1102540372311338</v>
+      </c>
+      <c r="E25">
+        <v>0.03473740569281865</v>
+      </c>
+      <c r="F25">
+        <v>0.02748487918332417</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05784633348039004</v>
+        <v>-0.0608298493815962</v>
       </c>
       <c r="C26">
-        <v>0.01859147513933114</v>
+        <v>0.01526935665128668</v>
       </c>
       <c r="D26">
-        <v>0.03476169643325622</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04521893692715796</v>
+      </c>
+      <c r="E26">
+        <v>0.03340185985743523</v>
+      </c>
+      <c r="F26">
+        <v>-0.007533462755741516</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1346294056121017</v>
+        <v>-0.1437894351947845</v>
       </c>
       <c r="C28">
-        <v>0.01643245208447393</v>
+        <v>0.02420756123388649</v>
       </c>
       <c r="D28">
-        <v>-0.2641369434643269</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2588944128805321</v>
+      </c>
+      <c r="E28">
+        <v>-0.06729435160136905</v>
+      </c>
+      <c r="F28">
+        <v>0.003660703857391452</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02644986015945164</v>
+        <v>-0.02902916064019911</v>
       </c>
       <c r="C29">
-        <v>0.01015484009751987</v>
+        <v>0.00933973887587552</v>
       </c>
       <c r="D29">
-        <v>0.02978819112206634</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03057337073180786</v>
+      </c>
+      <c r="E29">
+        <v>0.01882640920403309</v>
+      </c>
+      <c r="F29">
+        <v>-0.01325074044266039</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05834021266340815</v>
+        <v>-0.05587053555118376</v>
       </c>
       <c r="C30">
-        <v>0.007880258733313085</v>
+        <v>0.002822829662462655</v>
       </c>
       <c r="D30">
-        <v>0.08014971083491811</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08814434609083281</v>
+      </c>
+      <c r="E30">
+        <v>0.01444379194254035</v>
+      </c>
+      <c r="F30">
+        <v>0.07905005411960692</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05065436744109234</v>
+        <v>-0.05113109138257109</v>
       </c>
       <c r="C31">
-        <v>0.01777783314727329</v>
+        <v>0.01645128465875393</v>
       </c>
       <c r="D31">
-        <v>0.02171886678009171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02452318541008916</v>
+      </c>
+      <c r="E31">
+        <v>0.02946644728107019</v>
+      </c>
+      <c r="F31">
+        <v>-0.001548040977553488</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.0477182113484765</v>
+        <v>-0.05167452268860005</v>
       </c>
       <c r="C32">
-        <v>0.002321791414403813</v>
+        <v>-0.0009613714037530117</v>
       </c>
       <c r="D32">
-        <v>0.02847841015060417</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03317386438936363</v>
+      </c>
+      <c r="E32">
+        <v>0.03521261946850655</v>
+      </c>
+      <c r="F32">
+        <v>0.003820282285868391</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09072140979858552</v>
+        <v>-0.09030387759540341</v>
       </c>
       <c r="C33">
-        <v>0.01411672055290494</v>
+        <v>0.008122268348256443</v>
       </c>
       <c r="D33">
-        <v>0.0910855257214012</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1049910622297705</v>
+      </c>
+      <c r="E33">
+        <v>0.04956764919144768</v>
+      </c>
+      <c r="F33">
+        <v>0.04341198056436026</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06867728588081501</v>
+        <v>-0.06699445583427097</v>
       </c>
       <c r="C34">
-        <v>0.01589228094120321</v>
+        <v>0.01102288780264985</v>
       </c>
       <c r="D34">
-        <v>0.09752413920782992</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.109923875737427</v>
+      </c>
+      <c r="E34">
+        <v>0.03873618296615553</v>
+      </c>
+      <c r="F34">
+        <v>0.03458189947459675</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02606429565705669</v>
+        <v>-0.02755294808954208</v>
       </c>
       <c r="C35">
-        <v>0.004230137691231167</v>
+        <v>0.003708289024795325</v>
       </c>
       <c r="D35">
-        <v>0.008282255500606109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01179322564640237</v>
+      </c>
+      <c r="E35">
+        <v>0.01573233046244697</v>
+      </c>
+      <c r="F35">
+        <v>-3.004201460137713e-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02508819376550865</v>
+        <v>-0.02859995380410107</v>
       </c>
       <c r="C36">
-        <v>0.008313790920338997</v>
+        <v>0.007228830138520574</v>
       </c>
       <c r="D36">
-        <v>0.03836535562873546</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03981710935370617</v>
+      </c>
+      <c r="E36">
+        <v>0.01963256356594475</v>
+      </c>
+      <c r="F36">
+        <v>0.0148387192921346</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.002141452552206889</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0007033664230553314</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.003543466821059021</v>
+      </c>
+      <c r="E37">
+        <v>0.0006840130272506784</v>
+      </c>
+      <c r="F37">
+        <v>-0.00130125206237368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1094751935396989</v>
+        <v>-0.09865044823300115</v>
       </c>
       <c r="C39">
-        <v>0.02310334178596914</v>
+        <v>0.01663142899453672</v>
       </c>
       <c r="D39">
-        <v>0.1493688438778656</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1519567592098367</v>
+      </c>
+      <c r="E39">
+        <v>0.06144145430349698</v>
+      </c>
+      <c r="F39">
+        <v>0.02111148973324996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03871882874105021</v>
+        <v>-0.04437542969060895</v>
       </c>
       <c r="C40">
-        <v>0.009551504596971986</v>
+        <v>0.008230621784732911</v>
       </c>
       <c r="D40">
-        <v>0.02423703648992855</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03272354060718039</v>
+      </c>
+      <c r="E40">
+        <v>0.003047186140654403</v>
+      </c>
+      <c r="F40">
+        <v>-0.01683247232540279</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02493979753837361</v>
+        <v>-0.02732005295013968</v>
       </c>
       <c r="C41">
-        <v>0.007655168709239413</v>
+        <v>0.006997889297623607</v>
       </c>
       <c r="D41">
-        <v>0.007975847639060462</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.00996281984258859</v>
+      </c>
+      <c r="E41">
+        <v>0.01333238475691936</v>
+      </c>
+      <c r="F41">
+        <v>-0.0071004880353057</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04162851146929095</v>
+        <v>-0.03999759538088925</v>
       </c>
       <c r="C43">
-        <v>0.008631649263459695</v>
+        <v>0.00785406410384119</v>
       </c>
       <c r="D43">
-        <v>0.0179147100275943</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.0198695612540224</v>
+      </c>
+      <c r="E43">
+        <v>0.02793715480952895</v>
+      </c>
+      <c r="F43">
+        <v>-0.01608649012691386</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.06713750142699974</v>
+        <v>-0.07707087294494891</v>
       </c>
       <c r="C44">
-        <v>0.02419220682582355</v>
+        <v>0.02032822982697926</v>
       </c>
       <c r="D44">
-        <v>0.09430237155880601</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09460592022897422</v>
+      </c>
+      <c r="E44">
+        <v>0.06177669043524697</v>
+      </c>
+      <c r="F44">
+        <v>0.1687208846053403</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02240938733901179</v>
+        <v>-0.02496440141551045</v>
       </c>
       <c r="C46">
-        <v>0.0046770795643926</v>
+        <v>0.003780490696428847</v>
       </c>
       <c r="D46">
-        <v>0.01091650794206472</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.0142538394801637</v>
+      </c>
+      <c r="E46">
+        <v>0.03195041227139186</v>
+      </c>
+      <c r="F46">
+        <v>-0.005065282825341312</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05379078861042916</v>
+        <v>-0.05287223427283178</v>
       </c>
       <c r="C47">
-        <v>0.005880698186800679</v>
+        <v>0.004789537574851901</v>
       </c>
       <c r="D47">
-        <v>0.007277120623021889</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01088029702819876</v>
+      </c>
+      <c r="E47">
+        <v>0.02484058846864611</v>
+      </c>
+      <c r="F47">
+        <v>-0.03187585363232102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04833333359624382</v>
+        <v>-0.05139620787479856</v>
       </c>
       <c r="C48">
-        <v>0.005362271164871931</v>
+        <v>0.002736589551237686</v>
       </c>
       <c r="D48">
-        <v>0.0477343493556641</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05049324256117312</v>
+      </c>
+      <c r="E48">
+        <v>-0.00331261642178143</v>
+      </c>
+      <c r="F48">
+        <v>0.01201794278457273</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1982566356374413</v>
+        <v>-0.2003607129622875</v>
       </c>
       <c r="C49">
-        <v>0.02425547119327313</v>
+        <v>0.02214871720967245</v>
       </c>
       <c r="D49">
-        <v>-0.0120754321063857</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.005148067508940681</v>
+      </c>
+      <c r="E49">
+        <v>0.0279678561203866</v>
+      </c>
+      <c r="F49">
+        <v>0.05147699053423216</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.0492916378218632</v>
+        <v>-0.05162296580623197</v>
       </c>
       <c r="C50">
-        <v>0.01341156674098524</v>
+        <v>0.01209852393906942</v>
       </c>
       <c r="D50">
-        <v>0.02163250925347712</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02436594792817835</v>
+      </c>
+      <c r="E50">
+        <v>0.03240390419671608</v>
+      </c>
+      <c r="F50">
+        <v>0.0091127488332708</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1545790823967612</v>
+        <v>-0.1476012480038273</v>
       </c>
       <c r="C52">
-        <v>0.02213955998182405</v>
+        <v>0.01987968381441015</v>
       </c>
       <c r="D52">
-        <v>0.04104234698590738</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04295066918658712</v>
+      </c>
+      <c r="E52">
+        <v>0.02041957340814582</v>
+      </c>
+      <c r="F52">
+        <v>0.04143066642755618</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1743245292226509</v>
+        <v>-0.1683261528553318</v>
       </c>
       <c r="C53">
-        <v>0.02346364340171228</v>
+        <v>0.02309867591172027</v>
       </c>
       <c r="D53">
-        <v>0.004903090573578352</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.006457694080990025</v>
+      </c>
+      <c r="E53">
+        <v>0.02698452068168079</v>
+      </c>
+      <c r="F53">
+        <v>0.07492136371467464</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01672576037839005</v>
+        <v>-0.01881174152806601</v>
       </c>
       <c r="C54">
-        <v>0.01216369720395278</v>
+        <v>0.01104722047968813</v>
       </c>
       <c r="D54">
-        <v>0.02915086082579906</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02916388771425034</v>
+      </c>
+      <c r="E54">
+        <v>0.02111920693363089</v>
+      </c>
+      <c r="F54">
+        <v>-0.002283060960439629</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1183118493043848</v>
+        <v>-0.1161846199459158</v>
       </c>
       <c r="C55">
-        <v>0.0204131713357168</v>
+        <v>0.02014462499756631</v>
       </c>
       <c r="D55">
-        <v>0.003044218701176001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008486409765706979</v>
+      </c>
+      <c r="E55">
+        <v>0.02520985816109442</v>
+      </c>
+      <c r="F55">
+        <v>0.04583376180556515</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1809817744612449</v>
+        <v>-0.1755764128881121</v>
       </c>
       <c r="C56">
-        <v>0.02154220967070741</v>
+        <v>0.02136658635560974</v>
       </c>
       <c r="D56">
-        <v>-0.007247537628283088</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.002143262747370387</v>
+      </c>
+      <c r="E56">
+        <v>0.03077432166099383</v>
+      </c>
+      <c r="F56">
+        <v>0.0555372395135312</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04653015642918282</v>
+        <v>-0.04537498205907031</v>
       </c>
       <c r="C58">
-        <v>0.005033533018078389</v>
+        <v>0.0002198013699305502</v>
       </c>
       <c r="D58">
-        <v>0.06591298079960908</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.07602368266496984</v>
+      </c>
+      <c r="E58">
+        <v>0.035959839645009</v>
+      </c>
+      <c r="F58">
+        <v>-0.03619531086516808</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1614439222064057</v>
+        <v>-0.1680093266196543</v>
       </c>
       <c r="C59">
-        <v>0.01828671779142142</v>
+        <v>0.02471345041427297</v>
       </c>
       <c r="D59">
-        <v>-0.2220501639303733</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2162233717755407</v>
+      </c>
+      <c r="E59">
+        <v>-0.05123324802421587</v>
+      </c>
+      <c r="F59">
+        <v>-0.04221167554784377</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2382707945309106</v>
+        <v>-0.2299522251738371</v>
       </c>
       <c r="C60">
-        <v>0.005756489361788872</v>
+        <v>0.002258514592671242</v>
       </c>
       <c r="D60">
-        <v>0.03670188629212491</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.03934357427101234</v>
+      </c>
+      <c r="E60">
+        <v>-0.001117026564167831</v>
+      </c>
+      <c r="F60">
+        <v>0.00727130015640743</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08057260043444722</v>
+        <v>-0.07411595231645732</v>
       </c>
       <c r="C61">
-        <v>0.01699959509722819</v>
+        <v>0.01148270009777944</v>
       </c>
       <c r="D61">
-        <v>0.1110133998007715</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1173097092200785</v>
+      </c>
+      <c r="E61">
+        <v>0.04044139095675117</v>
+      </c>
+      <c r="F61">
+        <v>0.007641655995409429</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1730526145600269</v>
+        <v>-0.1687952830846139</v>
       </c>
       <c r="C62">
-        <v>0.02517523734777521</v>
+        <v>0.02392750242811318</v>
       </c>
       <c r="D62">
-        <v>4.247405949291981e-05</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.007417088272595972</v>
+      </c>
+      <c r="E62">
+        <v>0.03351863971641059</v>
+      </c>
+      <c r="F62">
+        <v>0.04139711438921934</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04190910058937671</v>
+        <v>-0.04615355895320893</v>
       </c>
       <c r="C63">
-        <v>0.005882244378170245</v>
+        <v>0.002535794290390375</v>
       </c>
       <c r="D63">
-        <v>0.04976736051507535</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06046706312038872</v>
+      </c>
+      <c r="E63">
+        <v>0.0258654117284456</v>
+      </c>
+      <c r="F63">
+        <v>0.0004975820435208039</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1151096717337661</v>
+        <v>-0.111772929726412</v>
       </c>
       <c r="C64">
-        <v>0.01751457233328576</v>
+        <v>0.01403399747480748</v>
       </c>
       <c r="D64">
-        <v>0.03388719215489514</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04203591462756015</v>
+      </c>
+      <c r="E64">
+        <v>0.02556546400349696</v>
+      </c>
+      <c r="F64">
+        <v>0.02748361020868677</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.145393965785923</v>
+        <v>-0.1525183458931222</v>
       </c>
       <c r="C65">
-        <v>0.03743827202417652</v>
+        <v>0.03703159031499031</v>
       </c>
       <c r="D65">
-        <v>-0.05752894545937627</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04499353689163631</v>
+      </c>
+      <c r="E65">
+        <v>0.005968369828277887</v>
+      </c>
+      <c r="F65">
+        <v>0.0377143750038909</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1322010981313087</v>
+        <v>-0.1186376615863321</v>
       </c>
       <c r="C66">
-        <v>0.021649298046787</v>
+        <v>0.01492124665654938</v>
       </c>
       <c r="D66">
-        <v>0.1327408163203601</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.141523570680232</v>
+      </c>
+      <c r="E66">
+        <v>0.06580014765592734</v>
+      </c>
+      <c r="F66">
+        <v>0.02712958773646637</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.0631619687004971</v>
+        <v>-0.0560019390306348</v>
       </c>
       <c r="C67">
-        <v>0.006594997175983638</v>
+        <v>0.004209363858099661</v>
       </c>
       <c r="D67">
-        <v>0.05536133694642071</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05809834362001479</v>
+      </c>
+      <c r="E67">
+        <v>0.02275161274319248</v>
+      </c>
+      <c r="F67">
+        <v>-0.03415680413892116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1088364821292031</v>
+        <v>-0.1183417604832338</v>
       </c>
       <c r="C68">
-        <v>0.02662517724587437</v>
+        <v>0.03503526329095809</v>
       </c>
       <c r="D68">
-        <v>-0.263118733233675</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2595934925298276</v>
+      </c>
+      <c r="E68">
+        <v>-0.08776033581997258</v>
+      </c>
+      <c r="F68">
+        <v>5.740584108377038e-05</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03954940488354419</v>
+        <v>-0.03871219387747919</v>
       </c>
       <c r="C69">
-        <v>0.002655948305175404</v>
+        <v>0.001704062875590347</v>
       </c>
       <c r="D69">
-        <v>0.008611783170550334</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.009788563473924395</v>
+      </c>
+      <c r="E69">
+        <v>0.0285199993859478</v>
+      </c>
+      <c r="F69">
+        <v>-0.0006787090717071312</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06820615142026358</v>
+        <v>-0.06783217847806516</v>
       </c>
       <c r="C70">
-        <v>-0.02385773290312465</v>
+        <v>-0.02614332211716056</v>
       </c>
       <c r="D70">
-        <v>0.02391736868599699</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02871544591418378</v>
+      </c>
+      <c r="E70">
+        <v>-0.02363240891250377</v>
+      </c>
+      <c r="F70">
+        <v>-0.1823284861321321</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1276311478619861</v>
+        <v>-0.1386087203468236</v>
       </c>
       <c r="C71">
-        <v>0.03139490322333436</v>
+        <v>0.03980244234685269</v>
       </c>
       <c r="D71">
-        <v>-0.2786833398771743</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2695665694028708</v>
+      </c>
+      <c r="E71">
+        <v>-0.09789280168483215</v>
+      </c>
+      <c r="F71">
+        <v>0.004091891242936548</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1366242269465945</v>
+        <v>-0.1436958934101346</v>
       </c>
       <c r="C72">
-        <v>0.02951528516371075</v>
+        <v>0.02972790802892594</v>
       </c>
       <c r="D72">
-        <v>-0.000324257909372238</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.003225770482095493</v>
+      </c>
+      <c r="E72">
+        <v>0.03933053768857547</v>
+      </c>
+      <c r="F72">
+        <v>0.0287683237473835</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.203031226373723</v>
+        <v>-0.2039341712111765</v>
       </c>
       <c r="C73">
-        <v>0.01946218750242145</v>
+        <v>0.01543723251093654</v>
       </c>
       <c r="D73">
-        <v>0.008561728020002449</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01865678429607739</v>
+      </c>
+      <c r="E73">
+        <v>0.06367372014578179</v>
+      </c>
+      <c r="F73">
+        <v>0.04590423958084539</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09076294709311648</v>
+        <v>-0.09175622067167094</v>
       </c>
       <c r="C74">
-        <v>0.01507396771402783</v>
+        <v>0.0143680386647714</v>
       </c>
       <c r="D74">
-        <v>0.01431125553485259</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01736619808435409</v>
+      </c>
+      <c r="E74">
+        <v>0.04212756670122157</v>
+      </c>
+      <c r="F74">
+        <v>0.05303704267141102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1333195173137692</v>
+        <v>-0.1254148072171193</v>
       </c>
       <c r="C75">
-        <v>0.03271603560403105</v>
+        <v>0.03068602091468724</v>
       </c>
       <c r="D75">
-        <v>0.02374695079555908</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02981222486761177</v>
+      </c>
+      <c r="E75">
+        <v>0.0556051468114949</v>
+      </c>
+      <c r="F75">
+        <v>0.02183399336331131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08112523466168237</v>
+        <v>-0.09181099550811526</v>
       </c>
       <c r="C77">
-        <v>0.01462900087456809</v>
+        <v>0.009388105418737056</v>
       </c>
       <c r="D77">
-        <v>0.1131389597137217</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1165829781025305</v>
+      </c>
+      <c r="E77">
+        <v>0.04776148418363618</v>
+      </c>
+      <c r="F77">
+        <v>0.03498081770707022</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1012585068837382</v>
+        <v>-0.1011540490992401</v>
       </c>
       <c r="C78">
-        <v>0.0454249493256163</v>
+        <v>0.04127246973037688</v>
       </c>
       <c r="D78">
-        <v>0.1121185431418082</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1108073413308182</v>
+      </c>
+      <c r="E78">
+        <v>0.07664562823677193</v>
+      </c>
+      <c r="F78">
+        <v>0.05260015928925575</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1670901994170586</v>
+        <v>-0.1636105945583777</v>
       </c>
       <c r="C79">
-        <v>0.02803382785003077</v>
+        <v>0.02662643796744161</v>
       </c>
       <c r="D79">
-        <v>0.006057897929888616</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01288421785968131</v>
+      </c>
+      <c r="E79">
+        <v>0.04505323494373493</v>
+      </c>
+      <c r="F79">
+        <v>0.01240515137867343</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08101777895641492</v>
+        <v>-0.07948312162059547</v>
       </c>
       <c r="C80">
-        <v>0.003227080541023207</v>
+        <v>0.0003112678608149546</v>
       </c>
       <c r="D80">
-        <v>0.0530276706058875</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0535053179906317</v>
+      </c>
+      <c r="E80">
+        <v>0.03702174809765214</v>
+      </c>
+      <c r="F80">
+        <v>-0.02774229202981611</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1205318217298579</v>
+        <v>-0.1153908686900836</v>
       </c>
       <c r="C81">
-        <v>0.034509633617822</v>
+        <v>0.03388720758935624</v>
       </c>
       <c r="D81">
-        <v>0.007349785055262072</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.0122504237075363</v>
+      </c>
+      <c r="E81">
+        <v>0.05175476742071321</v>
+      </c>
+      <c r="F81">
+        <v>0.01846886674132138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1662512465202018</v>
+        <v>-0.1646291688680958</v>
       </c>
       <c r="C82">
-        <v>0.02834956576243854</v>
+        <v>0.0285435502957556</v>
       </c>
       <c r="D82">
-        <v>0.006511124859233984</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.004491670154716017</v>
+      </c>
+      <c r="E82">
+        <v>0.02571768999084836</v>
+      </c>
+      <c r="F82">
+        <v>0.08374178818280972</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06045119304213829</v>
+        <v>-0.05480010738870236</v>
       </c>
       <c r="C83">
-        <v>0.006080319012598516</v>
+        <v>0.00390598326858206</v>
       </c>
       <c r="D83">
-        <v>0.03577792918940454</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03915170131113494</v>
+      </c>
+      <c r="E83">
+        <v>-0.0005808833840761857</v>
+      </c>
+      <c r="F83">
+        <v>-0.03627982726957284</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05935249140461434</v>
+        <v>-0.05521067794777648</v>
       </c>
       <c r="C84">
-        <v>0.01349721554031079</v>
+        <v>0.01070130805596757</v>
       </c>
       <c r="D84">
-        <v>0.0738615906619035</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07559136513901442</v>
+      </c>
+      <c r="E84">
+        <v>0.0124661391971465</v>
+      </c>
+      <c r="F84">
+        <v>0.01580560151334062</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1401248641538097</v>
+        <v>-0.1351296595315863</v>
       </c>
       <c r="C85">
-        <v>0.0319279502916938</v>
+        <v>0.03118252939736445</v>
       </c>
       <c r="D85">
-        <v>0.005888419432244966</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.009921594245332798</v>
+      </c>
+      <c r="E85">
+        <v>0.03551925632184634</v>
+      </c>
+      <c r="F85">
+        <v>0.04902186557681212</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.09878308740005895</v>
+        <v>-0.09234632149286258</v>
       </c>
       <c r="C86">
-        <v>-0.002212156483918493</v>
+        <v>-0.005290948940703267</v>
       </c>
       <c r="D86">
-        <v>0.01922407675663634</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05133631407852061</v>
+      </c>
+      <c r="E86">
+        <v>0.2324219702578841</v>
+      </c>
+      <c r="F86">
+        <v>-0.8954738409725692</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09450520427742569</v>
+        <v>-0.0915458329093914</v>
       </c>
       <c r="C87">
-        <v>0.02859705843129128</v>
+        <v>0.02083213327766893</v>
       </c>
       <c r="D87">
-        <v>0.07131129691625318</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.090243719648847</v>
+      </c>
+      <c r="E87">
+        <v>-0.05828961834808677</v>
+      </c>
+      <c r="F87">
+        <v>0.04895227969272274</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06335804161406314</v>
+        <v>-0.06153648785742463</v>
       </c>
       <c r="C88">
-        <v>0.006389482764107114</v>
+        <v>0.003354073933587591</v>
       </c>
       <c r="D88">
-        <v>0.04892108936581848</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04982630918972983</v>
+      </c>
+      <c r="E88">
+        <v>0.02666787817102562</v>
+      </c>
+      <c r="F88">
+        <v>0.01386397421692805</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1193091963834916</v>
+        <v>-0.1281835195313123</v>
       </c>
       <c r="C89">
-        <v>0.007261123538583558</v>
+        <v>0.01499039403206509</v>
       </c>
       <c r="D89">
-        <v>-0.2389976483798861</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2409002697846353</v>
+      </c>
+      <c r="E89">
+        <v>-0.08993992967702348</v>
+      </c>
+      <c r="F89">
+        <v>-0.008609140616163727</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1392034828008672</v>
+        <v>-0.1534338508596482</v>
       </c>
       <c r="C90">
-        <v>0.02742434662888747</v>
+        <v>0.03638886145199439</v>
       </c>
       <c r="D90">
-        <v>-0.2653087013441247</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2672183473853769</v>
+      </c>
+      <c r="E90">
+        <v>-0.1155187397162988</v>
+      </c>
+      <c r="F90">
+        <v>-0.01036024188226024</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1231534425418903</v>
+        <v>-0.1204691838836116</v>
       </c>
       <c r="C91">
-        <v>0.02261816316516175</v>
+        <v>0.02257019359833382</v>
       </c>
       <c r="D91">
-        <v>-0.02100308575179537</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01675511363769388</v>
+      </c>
+      <c r="E91">
+        <v>0.05466712693331074</v>
+      </c>
+      <c r="F91">
+        <v>-0.001518747215512509</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1400353080368424</v>
+        <v>-0.1464080488263133</v>
       </c>
       <c r="C92">
-        <v>0.0182639072480624</v>
+        <v>0.0272984841498282</v>
       </c>
       <c r="D92">
-        <v>-0.2944173782040463</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2918742365615142</v>
+      </c>
+      <c r="E92">
+        <v>-0.1018065249024473</v>
+      </c>
+      <c r="F92">
+        <v>-0.02034152632430348</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1432695439894587</v>
+        <v>-0.1557839373508126</v>
       </c>
       <c r="C93">
-        <v>0.02383600320476679</v>
+        <v>0.03163652494542424</v>
       </c>
       <c r="D93">
-        <v>-0.2631508783405441</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2620252100832177</v>
+      </c>
+      <c r="E93">
+        <v>-0.07466602035821603</v>
+      </c>
+      <c r="F93">
+        <v>0.001787762404327258</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1330585309783611</v>
+        <v>-0.1249124241171442</v>
       </c>
       <c r="C94">
-        <v>0.02903313771489398</v>
+        <v>0.0264812848334254</v>
       </c>
       <c r="D94">
-        <v>0.03842418829350241</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04196979750710817</v>
+      </c>
+      <c r="E94">
+        <v>0.05660088079588553</v>
+      </c>
+      <c r="F94">
+        <v>0.03228815407737742</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1268376523077027</v>
+        <v>-0.1298385738566991</v>
       </c>
       <c r="C95">
-        <v>0.01113908987536686</v>
+        <v>0.005809745354728827</v>
       </c>
       <c r="D95">
-        <v>0.0882967730962899</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09883992647249625</v>
+      </c>
+      <c r="E95">
+        <v>0.05987131956873693</v>
+      </c>
+      <c r="F95">
+        <v>0.005798814037799373</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1352108297888948</v>
+        <v>-0.1267728908542667</v>
       </c>
       <c r="C96">
-        <v>-0.9851093755553733</v>
+        <v>-0.9852089837563645</v>
       </c>
       <c r="D96">
-        <v>-0.02059557889911613</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05041347257391054</v>
+      </c>
+      <c r="E96">
+        <v>0.04944935941913464</v>
+      </c>
+      <c r="F96">
+        <v>0.04292930001429385</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1874463306395099</v>
+        <v>-0.1914273447138074</v>
       </c>
       <c r="C97">
-        <v>-0.002536406658478413</v>
+        <v>-0.002965114004572941</v>
       </c>
       <c r="D97">
-        <v>-0.02967891272016246</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.03097910348319454</v>
+      </c>
+      <c r="E97">
+        <v>0.03846690403166878</v>
+      </c>
+      <c r="F97">
+        <v>-0.1138992909781882</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2001018237421996</v>
+        <v>-0.2062633116492492</v>
       </c>
       <c r="C98">
-        <v>0.01429950583030546</v>
+        <v>0.01021998625739267</v>
       </c>
       <c r="D98">
-        <v>0.01304658912106616</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01486807464865793</v>
+      </c>
+      <c r="E98">
+        <v>-0.07994252723407454</v>
+      </c>
+      <c r="F98">
+        <v>-0.09392374807551904</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05659562743924856</v>
+        <v>-0.05594173311914426</v>
       </c>
       <c r="C99">
-        <v>-0.001228074127035059</v>
+        <v>-0.003361828830337689</v>
       </c>
       <c r="D99">
-        <v>0.03459367559923116</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.04093678507139678</v>
+      </c>
+      <c r="E99">
+        <v>0.02607260139314519</v>
+      </c>
+      <c r="F99">
+        <v>0.003221426172480063</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1483331593595606</v>
+        <v>-0.134168394278587</v>
       </c>
       <c r="C100">
-        <v>-0.0357422487105603</v>
+        <v>-0.04770994990387166</v>
       </c>
       <c r="D100">
-        <v>0.3994893720216876</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3605805625247444</v>
+      </c>
+      <c r="E100">
+        <v>-0.8794353518592711</v>
+      </c>
+      <c r="F100">
+        <v>-0.160365708942937</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02645722815238488</v>
+        <v>-0.02908338634262177</v>
       </c>
       <c r="C101">
-        <v>0.01016252108065683</v>
+        <v>0.009366951455635535</v>
       </c>
       <c r="D101">
-        <v>0.02940177922674858</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03019464528227444</v>
+      </c>
+      <c r="E101">
+        <v>0.01846050395046541</v>
+      </c>
+      <c r="F101">
+        <v>-0.01458405758576781</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
